--- a/Corte de Apelaciones de Arica/1-2014001#992#1-G-ingresos_causas_por_materia-2020-12.xlsx
+++ b/Corte de Apelaciones de Arica/1-2014001#992#1-G-ingresos_causas_por_materia-2020-12.xlsx
@@ -58,24 +58,24 @@
     <t>Conduc.estado De Ebriedad Con O Sin Daños O Lesiones Leves.</t>
   </si>
   <si>
+    <t>Extranjeros Que Ingresan O Intentan Egresar Clandestinamente</t>
+  </si>
+  <si>
     <t>Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
   </si>
   <si>
-    <t>Extranjeros Que Ingresan O Intentan Egresar Clandestinamente</t>
-  </si>
-  <si>
     <t>Contra Salud Pública. Arts. 313 D Al 315 Y Art. 317.</t>
   </si>
   <si>
     <t>Trafico De Pequeñas Cantidades (Art. 4).</t>
   </si>
   <si>
+    <t>Conduc.ebriedad Susp.lic. Art.196Y209 Inc.2 Ley.transito.</t>
+  </si>
+  <si>
     <t>Trafico Ilícito De Drogas (Art. 3).</t>
   </si>
   <si>
-    <t>Conduc.ebriedad Susp.lic. Art.196Y209 Inc.2 Ley.transito.</t>
-  </si>
-  <si>
     <t>Daños Simples.</t>
   </si>
   <si>
@@ -97,37 +97,37 @@
     <t>Contrab. Infrac A La Ord. De Aduan Art 168. Ley 20.780</t>
   </si>
   <si>
+    <t>Robo En Lugar No Habitado.</t>
+  </si>
+  <si>
     <t>Cuasidelito De Lesiones: Art 490, 491 Inc 2° Y 492.</t>
   </si>
   <si>
     <t>Consumo/Porte En Lug.pub.o Priv.c/Previo Concierto(Art.50).</t>
   </si>
   <si>
-    <t>Robo En Lugar No Habitado.</t>
-  </si>
-  <si>
     <t>Hallazgo De Vehiculo.</t>
   </si>
   <si>
     <t>Receptacion. Art. 456 Bis A.</t>
   </si>
   <si>
+    <t>Presunta Desgracia Infantil.</t>
+  </si>
+  <si>
     <t>Amenazas Condic.c/Personas Y Propiedades Art.296 1Y2,Art.297</t>
   </si>
   <si>
     <t>Hurto Falta (494 Bis Codigo Penal).</t>
   </si>
   <si>
+    <t>Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
+  </si>
+  <si>
+    <t>Muertes Y Hallazgo De Cadaver.</t>
+  </si>
+  <si>
     <t>Lesiones Graves.</t>
-  </si>
-  <si>
-    <t>Presunta Desgracia Infantil.</t>
-  </si>
-  <si>
-    <t>Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
-  </si>
-  <si>
-    <t>Muertes Y Hallazgo De Cadaver.</t>
   </si>
   <si>
     <t>Apropiacion Indebida Art.470 N°1</t>
@@ -750,7 +750,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
         <v>110</v>
@@ -1452,7 +1452,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>110</v>
